--- a/InputFiles/TC05_CDS_Filter_Study-CIDR_Aggressive_Prostate_Cancer.xlsx
+++ b/InputFiles/TC05_CDS_Filter_Study-CIDR_Aggressive_Prostate_Cancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\CDS Automation\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B745B28-8203-4DE5-AD75-5170FC133546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2073B6D-504C-4B5C-9ABA-1823C65D4A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -79,19 +79,6 @@
    ORDER By f.file_name LIMIT 100</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;--(p:participant)&lt;--(samp:sample)
-WHERE s.study_name in ["CIDR: The Genetic Basis of Aggressive Prostate Cancer: The Role of Rare Variation"]
-WITH p,s,samp,COLLECT(DISTINCT samp.sample_tumor_status) as tumor
-RETURN  
- coalesce(samp.sample_id, '') as `Sample ID`,
- coalesce(p.participant_id,'') as `Participant ID`,
- coalesce(s.study_name, '') as `Study Name`,
- coalesce(s.phs_accession,'') as `Accession`,
- coalesce(tumor,'') as `Tumor`,
-coalesce(samp.sample_type,'') as `Analyte Type`
-ORDER By samp.sample_id LIMIT 100</t>
-  </si>
-  <si>
     <t>MATCH (s:study)&lt;--(p:participant)
 WHERE s.study_name in ["CIDR: The Genetic Basis of Aggressive Prostate Cancer: The Role of Rare Variation"]
 OPTIONAL MATCH (p)&lt;--(samp:sample)
@@ -116,6 +103,20 @@
     count(distinct p) AS Participants,
     count(distinct samp) AS Samples,
     count(distinct f) AS `Files`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MATCH (s:study)&lt;--(p:participant)&lt;--(samp:sample)
+WHERE s.study_name in ["CIDR: The Genetic Basis of Aggressive Prostate Cancer: The Role of Rare Variation"]
+WITH p,s,samp,COLLECT(DISTINCT samp.sample_tumor_status) as tumor
+RETURN  
+ coalesce(samp.sample_id, '') as `Sample ID`,
+ coalesce(p.participant_id,'') as `Participant ID`,
+ coalesce(s.study_name, '') as `Study Name`,
+ coalesce(s.phs_accession,'') as `Accession`,
+ coalesce(samp.sample_tumor_status,'') as `Tumor`,
+coalesce(samp.sample_type,'') as `Analyte Type`
+  ORDER By samp.sample_id LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -498,7 +499,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,10 +533,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -544,15 +545,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="189" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -569,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>

--- a/InputFiles/TC05_CDS_Filter_Study-CIDR_Aggressive_Prostate_Cancer.xlsx
+++ b/InputFiles/TC05_CDS_Filter_Study-CIDR_Aggressive_Prostate_Cancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\CDS Automation\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2073B6D-504C-4B5C-9ABA-1823C65D4A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF23FD-A509-499D-9B3A-1806BA4872E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>TabName</t>
   </si>
   <si>
-    <t>CasesTab</t>
-  </si>
-  <si>
     <t>SamplesTab</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
  coalesce(samp.sample_tumor_status,'') as `Tumor`,
 coalesce(samp.sample_type,'') as `Analyte Type`
   ORDER By samp.sample_id LIMIT 100</t>
+  </si>
+  <si>
+    <t>ParticipantsTab</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,53 +530,53 @@
     </row>
     <row r="2" spans="1:5" ht="189" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
